--- a/Mifos Automation Excels/Client/2491-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2491-RBI-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-CASH-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -154,9 +149,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -178,20 +170,23 @@
     <t>$ 1,000.96</t>
   </si>
   <si>
+    <t>$ 37.28</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>$ 860.01</t>
+  </si>
+  <si>
     <t>$ 822.73</t>
-  </si>
-  <si>
-    <t>$ 37.28</t>
-  </si>
-  <si>
-    <t>$ 860.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +207,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -291,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -330,6 +333,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,26 +432,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,23 +467,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -829,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1478,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,41 +1496,43 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1589,7 +1566,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1623,7 +1600,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1657,7 +1634,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1686,8 +1663,8 @@
       <c r="J5" s="8">
         <v>5000</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,7 +1744,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -1795,7 +1772,7 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1854,7 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,7 +1881,7 @@
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1930,7 +1907,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="18"/>
     </row>
@@ -2012,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -2040,7 +2017,7 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2052,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,7 +2043,7 @@
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
@@ -2099,7 +2076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>151</v>
       </c>
@@ -2122,8 +2099,8 @@
         <v>33</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
-        <v>50</v>
+      <c r="I2" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,8 +2126,8 @@
         <v>36</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
-        <v>51</v>
+      <c r="I3" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,12 +2152,13 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>52</v>
+      <c r="H4" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="I4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>